--- a/medicine/Enfance/Après_la_pluie,_le_beau_temps/Après_la_pluie,_le_beau_temps.xlsx
+++ b/medicine/Enfance/Après_la_pluie,_le_beau_temps/Après_la_pluie,_le_beau_temps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apr%C3%A8s_la_pluie,_le_beau_temps</t>
+          <t>Après_la_pluie,_le_beau_temps</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Après la pluie, le beau temps est un roman de la comtesse de Ségur, édité en 1871.
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apr%C3%A8s_la_pluie,_le_beau_temps</t>
+          <t>Après_la_pluie,_le_beau_temps</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Résumé de l'histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Geneviève et Georges sont deux enfants élevés ensemble. Georges est plein de défauts ; il pousse Geneviève à faire des bêtises et s'arrange pour la faire accuser. Celle-ci, très gentille, n'ose pas dénoncer Georges. Le père de Georges est le tuteur de Geneviève, et il est aveugle aux défauts de son fils.
 Un domestique noir, du nom de Ramoramor mais qui est surnommé Rame, est totalement dévoué à la petite Geneviève. Ce personnage apporte beaucoup d'anecdotes pittoresques au roman.
@@ -539,7 +553,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apr%C3%A8s_la_pluie,_le_beau_temps</t>
+          <t>Après_la_pluie,_le_beau_temps</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,7 +571,9 @@
           <t>Illustrateurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Émile Bayard est le premier illustrateur de ce roman de la comtesse de Ségur, suivi entre autres d'André Pécoud, Dupuich, Jobbé-Duval.
 </t>
